--- a/unavailable.xlsx
+++ b/unavailable.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
@@ -463,24 +463,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Keven</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -492,24 +492,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -526,24 +526,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kobe</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -553,14 +553,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Keven</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -577,63 +577,63 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Billy</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -645,12 +645,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Cathy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sherlock</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,252 +672,252 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keven</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Keven</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kobe</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Keven</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -927,19 +927,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -951,24 +951,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -978,53 +978,53 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Billy</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1046,150 +1046,150 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Cathy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kobe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Keven</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1199,65 +1199,65 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cathy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1267,70 +1267,70 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Keven</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1342,46 +1342,46 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Kobe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1410,24 +1410,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>56节</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1444,29 +1444,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期四</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1478,34 +1478,34 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
@@ -1522,53 +1522,53 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cathy</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>星期一</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1580,41 +1580,41 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Sherlock</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1624,19 +1624,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>34节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1648,97 +1648,97 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Keven</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>78节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>星期四</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>12节</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sherlock</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>星期三</t>
+          <t>星期二</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>78节</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rick</t>
+          <t>Pine</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期五</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1750,12 +1750,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>星期二</t>
+          <t>星期一</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1767,34 +1767,34 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>星期五</t>
+          <t>星期三</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>56节</t>
+          <t>34节</t>
         </is>
       </c>
     </row>
